--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795583.8020666422</v>
+        <v>788573.0729506476</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791239</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.2311881380678</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,13 +668,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.134102717454848</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>25.70793462069767</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968079</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.56385273399706</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -826,13 +826,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>76.74086563202125</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>183.2598266172928</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.306818734235303</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>106.9436592214466</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968079</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.19550843742081</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.6244219116072</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>369.1586942119401</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>206.3145123979025</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>87.40854672613511</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>173.7828199682119</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362794</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>143.1183012762108</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>21.86214069041934</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993867</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717784</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>27.21350557457958</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456089</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>22.99595330817808</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>256.161435899033</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>171.1899637792194</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.3956075479337</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>2.583120945267972</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723208</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838871</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828884</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431716</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459957</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643929</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193184</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908567</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147781</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804985</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922178</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736777</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920501</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386976</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737746</v>
+        <v>1648.720191861811</v>
       </c>
       <c r="C2" t="n">
-        <v>1985.660557477071</v>
+        <v>1255.544690364741</v>
       </c>
       <c r="D2" t="n">
-        <v>1600.219428693739</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475491</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>895.7983071407456</v>
+        <v>588.4870060424364</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713895</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606224</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737746</v>
+        <v>1652.896053192573</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737746</v>
+        <v>1652.896053192573</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737746</v>
+        <v>1648.720191861811</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737746</v>
+        <v>1648.720191861811</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737746</v>
+        <v>1648.720191861811</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>176.1237484101828</v>
+        <v>330.0258031443428</v>
       </c>
       <c r="L3" t="n">
-        <v>176.1237484101828</v>
+        <v>813.591889042656</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202749</v>
+        <v>813.591889042656</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430367</v>
+        <v>1327.194567652345</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021348</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737746</v>
+        <v>2049.194727088946</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1872.210915287855</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1662.147771966497</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1439.607770337564</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>840.8692298963695</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3712536055546</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C4" t="n">
-        <v>510.1661356715437</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5330225740585</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9742104332609</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9742104332609</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9742104332609</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.2236301045415</v>
+        <v>865.4342434069604</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.330364670802</v>
+        <v>857.3114874350588</v>
       </c>
       <c r="C5" t="n">
-        <v>1785.330364670802</v>
+        <v>857.3114874350588</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.219428693739</v>
+        <v>471.8703586517265</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>471.8703586517265</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>54.97592018170428</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>45.85356871011151</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475491</v>
+        <v>45.85356871011151</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475491</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793341</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978629</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207955</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845417</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737746</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737746</v>
+        <v>1253.802196514458</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737746</v>
+        <v>1253.802196514458</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670802</v>
+        <v>1253.802196514458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1785.330364670802</v>
+        <v>857.3114874350588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>769.4169067332427</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>618.7626762933349</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475491</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475491</v>
+        <v>299.9892104329674</v>
       </c>
       <c r="L6" t="n">
-        <v>347.3800255716899</v>
+        <v>299.9892104329674</v>
       </c>
       <c r="M6" t="n">
-        <v>885.638810581782</v>
+        <v>813.591889042656</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591874</v>
+        <v>1327.194567652345</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1940.231660716793</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915701</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1553.184705594343</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1330.64470396541</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1100.527458098697</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1100.527458098697</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>921.2132411742041</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.7497132953094</v>
+        <v>251.2997873544107</v>
       </c>
       <c r="C7" t="n">
-        <v>211.7497132953094</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="D7" t="n">
-        <v>211.7497132953094</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953094</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475491</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475491</v>
+        <v>81.0946694203999</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>427.5319576504681</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7497132953094</v>
+        <v>436.507806045712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>1542.887474741433</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>1542.887474741433</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1157.4463459581</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1157.4463459581</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>1729.242936491551</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.790331424607</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.790331424607</v>
+        <v>1943.38222045283</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
         <v>623.6437572083089</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>736.5675419361427</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>500.8484901043768</v>
       </c>
       <c r="U10" t="n">
-        <v>210.7856656383638</v>
+        <v>500.8484901043768</v>
       </c>
       <c r="V10" t="n">
-        <v>210.7856656383638</v>
+        <v>500.8484901043768</v>
       </c>
       <c r="W10" t="n">
-        <v>210.7856656383638</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1625.315396040534</v>
+        <v>1621.583713082509</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.936169689659</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D11" t="n">
-        <v>990.2913160525204</v>
+        <v>986.5596330944956</v>
       </c>
       <c r="E11" t="n">
-        <v>659.5040663152593</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F11" t="n">
-        <v>314.4059029914309</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.675164609979</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="V11" t="n">
-        <v>2596.364630459691</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2596.364630459691</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>2278.708300538942</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.013866605737</v>
+        <v>1950.282183647712</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.9138851238279</v>
+        <v>485.8030133066248</v>
       </c>
       <c r="C13" t="n">
-        <v>318.505042336011</v>
+        <v>387.3941705188079</v>
       </c>
       <c r="D13" t="n">
-        <v>234.6682043847197</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9056673901162</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245453</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915635</v>
+        <v>912.814589959718</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689352</v>
+        <v>912.814589959718</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689352</v>
+        <v>750.530542888895</v>
       </c>
       <c r="Y13" t="n">
-        <v>530.3256286689352</v>
+        <v>599.2147568517322</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1946.873479994389</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1625.494253643514</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1311.849400006375</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>981.0621502691137</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2686.615622666087</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2686.615622666087</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.615622666087</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>2271.567913927594</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1946.873479994389</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.9138851238274</v>
+        <v>317.7028133078934</v>
       </c>
       <c r="C16" t="n">
-        <v>416.9138851238274</v>
+        <v>317.7028133078934</v>
       </c>
       <c r="D16" t="n">
-        <v>333.0770471725361</v>
+        <v>317.7028133078934</v>
       </c>
       <c r="E16" t="n">
-        <v>333.0770471725361</v>
+        <v>233.9402763132898</v>
       </c>
       <c r="F16" t="n">
-        <v>247.547387531703</v>
+        <v>148.4106166724564</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0896087773424</v>
+        <v>148.4106166724564</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>64.72834078014409</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245447</v>
+        <v>988.147539845774</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915628</v>
+        <v>793.9644698127921</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689348</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="X16" t="n">
-        <v>530.3256286689348</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="Y16" t="n">
-        <v>530.3256286689348</v>
+        <v>431.1145568530009</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099315</v>
@@ -5507,7 +5507,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,16 +6251,16 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420326</v>
@@ -6303,13 +6303,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="M27" t="n">
         <v>579.4156798503576</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286446</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>468.1643128146575</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985356</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517121</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192009</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225738</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904111</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993084</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057084</v>
+        <v>601.3807258108112</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.362800625417</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>2015.152299780547</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965115</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918654</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237449</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123122</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546499</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431891</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515736</v>
+        <v>501.1958531658826</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>687.4874315041466</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481172</v>
+        <v>982.3291861103385</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816896</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320545</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395496</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300092</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124399</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758448</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291065</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012539</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750537</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133177</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445269</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862349</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7734,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1521.202330875214</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>2037.722613466195</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>193.5145772035938</v>
       </c>
       <c r="N2" t="n">
-        <v>644.8332080783393</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3071442178793</v>
+        <v>266.7763031800777</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788123</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296707</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>236.4363105423248</v>
       </c>
       <c r="L6" t="n">
-        <v>397.0142520861455</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>629.067855288603</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>270.4260094517309</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>609.629233666585</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>376.3651575480042</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,10 +9720,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>486.9652344155849</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -10188,22 +10188,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>374.5901161977059</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>345.5977578821535</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>322.9245844628117</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>491.4748860273814</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,16 +11382,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>433.2773539239171</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>38.99858859880459</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>299.5853489034536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>57.46085746984519</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681691</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.245286024474</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>85.48574579155708</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.92692609579596</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>55.44984558545527</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>58.10204776929277</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.836930773104541e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812731.0194644427</v>
+        <v>812731.0194644425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812731.0194644427</v>
+        <v>812731.0194644426</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919694.1082761192</v>
+        <v>919694.1082761193</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="C2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="D2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="E2" t="n">
-        <v>302782.1445063608</v>
+        <v>302782.1445063609</v>
       </c>
       <c r="F2" t="n">
-        <v>302782.1445063608</v>
+        <v>302782.1445063609</v>
       </c>
       <c r="G2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="H2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.138377378</v>
       </c>
       <c r="I2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="J2" t="n">
         <v>342631.1383773779</v>
       </c>
       <c r="K2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="L2" t="n">
         <v>342631.1383773783</v>
@@ -26347,13 +26347,13 @@
         <v>342631.1383773781</v>
       </c>
       <c r="N2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="O2" t="n">
         <v>342631.138377378</v>
       </c>
       <c r="P2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773782</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728562</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277126</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373753</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373751</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153196</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153196</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,22 +26485,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73464.21427880198</v>
+        <v>-70315.86369202804</v>
       </c>
       <c r="C6" t="n">
-        <v>108740.7340130537</v>
+        <v>103542.7933420273</v>
       </c>
       <c r="D6" t="n">
-        <v>103877.4517191783</v>
+        <v>96141.16249578708</v>
       </c>
       <c r="E6" t="n">
-        <v>63389.06780873819</v>
+        <v>63179.33626204883</v>
       </c>
       <c r="F6" t="n">
-        <v>175511.6292827827</v>
+        <v>175301.8977360933</v>
       </c>
       <c r="G6" t="n">
         <v>115192.6315098568</v>
       </c>
       <c r="H6" t="n">
-        <v>162617.9570465388</v>
+        <v>162617.9570465386</v>
       </c>
       <c r="I6" t="n">
-        <v>162617.9570465387</v>
+        <v>162617.9570465386</v>
       </c>
       <c r="J6" t="n">
-        <v>-50423.96055074671</v>
+        <v>-43907.67539617382</v>
       </c>
       <c r="K6" t="n">
-        <v>156378.1886437557</v>
+        <v>156378.1886437555</v>
       </c>
       <c r="L6" t="n">
-        <v>101195.5997091349</v>
+        <v>97146.76249866275</v>
       </c>
       <c r="M6" t="n">
-        <v>120417.1275869159</v>
+        <v>119365.4325757276</v>
       </c>
       <c r="N6" t="n">
         <v>162617.9570465388</v>
@@ -26561,7 +26561,7 @@
         <v>134850.2630037675</v>
       </c>
       <c r="P6" t="n">
-        <v>162617.9570465388</v>
+        <v>162617.9570465389</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,16 +26707,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293142</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="I4" t="n">
-        <v>776.4890963014442</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095195</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660703</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551319</v>
+        <v>17.58004954287455</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>202.0125583440309</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,19 +27427,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>363.1549419639406</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>107.8734357084322</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627269</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.7920857703912</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27588,7 +27588,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>198.3268908782061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>132.6469270042245</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.84441848328788</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627269</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27786,13 +27786,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>92.56797267187207</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.256518659915884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>43.56679987338191</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>160.9745322834929</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>113.379376253141</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.8015838723062</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668824</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.4950968316017</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566154</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>76.79385455031618</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844044902</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155843</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K37" t="n">
-        <v>28.01250026485405</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30642,28 +30642,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.636002634528836</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30891,10 +30891,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -32491,7 +32491,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>43.78952560586659</v>
       </c>
       <c r="N2" t="n">
-        <v>495.7147167405552</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>19.71020888454594</v>
+        <v>177.1793678467444</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>133.1892414995749</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509188662</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>146.8393752089915</v>
       </c>
       <c r="L6" t="n">
-        <v>306.9539052292272</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344364</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>117.1778397212393</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35422,7 +35422,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776961</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>286.7682222146709</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529174</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950874</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.9048875586666</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>284.5297693407877</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381894</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767207</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273782</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>260.2256450279868</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595198</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>242.5793493723362</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.68470683715</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.4332024506015</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434252</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K37" t="n">
-        <v>110.674157951664</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7873271384925</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>346.1939891046024</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
